--- a/biology/Zoologie/Aneuretellus/Aneuretellus.xlsx
+++ b/biology/Zoologie/Aneuretellus/Aneuretellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aneuretellus deformis
 Aneuretellus est un genre fossile de fourmis de la sous-famille des Aneuretinae. Le genre ne contient qu'une seule espèce décrite, Aneuretellus deformis, et est connu grâce à un fossile de l'Éocène moyen trouvé à Sakhaline, dans l'Extrême-Orient russe. 
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Aneuretellus Dlussky, 1988[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Aneuretellus Dlussky, 1988.
 </t>
         </is>
       </c>
@@ -569,7 +585,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(ru) G. M. Dlussky, « Ants of Sakhalin amber (Paleocene?) », Paleontologicheskii Zhurnal,‎ 1988, p. 50–61 (lire en ligne)</t>
         </is>
